--- a/lowe/edd/data/STOC$HWS.xlsx
+++ b/lowe/edd/data/STOC$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1508,14 +1508,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH73"/>
+  <dimension ref="A1:JI73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1525,12 +1525,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1558,12 +1558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2378,11 +2378,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3183,10 +3186,13 @@
         <v>332400</v>
       </c>
       <c r="JH9" s="11">
-        <v>334300</v>
+        <v>334200</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>333100</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3987,10 +3993,13 @@
         <v>302400</v>
       </c>
       <c r="JH10" s="11">
-        <v>305900</v>
+        <v>305800</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>308200</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4793,8 +4802,11 @@
       <c r="JH11" s="11">
         <v>28400</v>
       </c>
+      <c r="JI11" s="11">
+        <v>24900</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5597,8 +5609,11 @@
       <c r="JH12" s="12">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6401,8 +6416,11 @@
       <c r="JH13" s="11">
         <v>265800</v>
       </c>
+      <c r="JI13" s="11">
+        <v>266000</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7205,8 +7223,11 @@
       <c r="JH14" s="11">
         <v>15000</v>
       </c>
+      <c r="JI14" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8009,8 +8030,11 @@
       <c r="JH15" s="11">
         <v>250800</v>
       </c>
+      <c r="JI15" s="11">
+        <v>251000</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8811,10 +8835,13 @@
         <v>207400</v>
       </c>
       <c r="JH16" s="11">
-        <v>210700</v>
+        <v>210600</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>210300</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9615,10 +9642,13 @@
         <v>36200</v>
       </c>
       <c r="JH17" s="11">
-        <v>36900</v>
+        <v>36700</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>36500</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10421,8 +10451,11 @@
       <c r="JH18" s="11">
         <v>14200</v>
       </c>
+      <c r="JI18" s="11">
+        <v>14200</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11225,8 +11258,11 @@
       <c r="JH19" s="11">
         <v>100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12029,8 +12065,11 @@
       <c r="JH20" s="11">
         <v>14100</v>
       </c>
+      <c r="JI20" s="11">
+        <v>14100</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12833,8 +12872,11 @@
       <c r="JH21" s="11">
         <v>9700</v>
       </c>
+      <c r="JI21" s="11">
+        <v>9700</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13635,10 +13677,13 @@
         <v>22200</v>
       </c>
       <c r="JH22" s="11">
-        <v>22700</v>
+        <v>22500</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>22300</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14441,8 +14486,11 @@
       <c r="JH23" s="11">
         <v>9400</v>
       </c>
+      <c r="JI23" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15243,10 +15291,13 @@
         <v>12800</v>
       </c>
       <c r="JH24" s="11">
-        <v>13300</v>
+        <v>13100</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>12800</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16047,10 +16098,13 @@
         <v>7300</v>
       </c>
       <c r="JH25" s="11">
-        <v>7500</v>
+        <v>7400</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>7300</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16851,10 +16905,13 @@
         <v>208700</v>
       </c>
       <c r="JH26" s="11">
-        <v>213900</v>
+        <v>214100</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>214500</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17655,10 +17712,13 @@
         <v>171200</v>
       </c>
       <c r="JH27" s="11">
+        <v>173900</v>
+      </c>
+      <c r="JI27" s="11">
         <v>173800</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18459,10 +18519,13 @@
         <v>76300</v>
       </c>
       <c r="JH28" s="11">
-        <v>77000</v>
+        <v>77300</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>77700</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19265,8 +19328,11 @@
       <c r="JH29" s="11">
         <v>10400</v>
       </c>
+      <c r="JI29" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20067,10 +20133,13 @@
         <v>26000</v>
       </c>
       <c r="JH30" s="11">
+        <v>26200</v>
+      </c>
+      <c r="JI30" s="11">
         <v>26100</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20873,8 +20942,11 @@
       <c r="JH31" s="11">
         <v>1900</v>
       </c>
+      <c r="JI31" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21677,8 +21749,11 @@
       <c r="JH32" s="11">
         <v>6000</v>
       </c>
+      <c r="JI32" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22481,8 +22556,11 @@
       <c r="JH33" s="11">
         <v>1000</v>
       </c>
+      <c r="JI33" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23283,10 +23361,13 @@
         <v>39900</v>
       </c>
       <c r="JH34" s="11">
-        <v>40500</v>
+        <v>40700</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>41200</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24087,10 +24168,13 @@
         <v>38700</v>
       </c>
       <c r="JH35" s="11">
-        <v>39400</v>
+        <v>39500</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>40000</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -24893,8 +24977,11 @@
       <c r="JH36" s="11">
         <v>7600</v>
       </c>
+      <c r="JI36" s="11">
+        <v>7500</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25695,10 +25782,13 @@
         <v>26100</v>
       </c>
       <c r="JH37" s="11">
-        <v>26300</v>
+        <v>26400</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>26600</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26501,8 +26591,11 @@
       <c r="JH38" s="11">
         <v>1100</v>
       </c>
+      <c r="JI38" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27305,8 +27398,11 @@
       <c r="JH39" s="11">
         <v>7800</v>
       </c>
+      <c r="JI39" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28109,8 +28205,11 @@
       <c r="JH40" s="11">
         <v>4600</v>
       </c>
+      <c r="JI40" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -28913,8 +29012,11 @@
       <c r="JH41" s="11">
         <v>1800</v>
       </c>
+      <c r="JI41" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29717,8 +29819,11 @@
       <c r="JH42" s="11">
         <v>22400</v>
       </c>
+      <c r="JI42" s="11">
+        <v>22000</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>50</v>
       </c>
@@ -30521,8 +30626,11 @@
       <c r="JH43" s="11">
         <v>15300</v>
       </c>
+      <c r="JI43" s="11">
+        <v>15400</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>51</v>
       </c>
@@ -31325,8 +31433,11 @@
       <c r="JH44" s="11">
         <v>38900</v>
       </c>
+      <c r="JI44" s="11">
+        <v>39100</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32127,10 +32238,13 @@
         <v>3600</v>
       </c>
       <c r="JH45" s="11">
-        <v>3600</v>
+        <v>3700</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -32931,10 +33045,13 @@
         <v>34200</v>
       </c>
       <c r="JH46" s="11">
+        <v>35200</v>
+      </c>
+      <c r="JI46" s="11">
         <v>35300</v>
       </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -33735,10 +33852,13 @@
         <v>19400</v>
       </c>
       <c r="JH47" s="11">
-        <v>19600</v>
+        <v>19400</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>19400</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34541,8 +34661,11 @@
       <c r="JH48" s="11">
         <v>1800</v>
       </c>
+      <c r="JI48" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35343,10 +35466,13 @@
         <v>17500</v>
       </c>
       <c r="JH49" s="11">
-        <v>17800</v>
+        <v>17600</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>17500</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>61</v>
       </c>
@@ -36147,10 +36273,13 @@
         <v>16400</v>
       </c>
       <c r="JH50" s="11">
-        <v>16700</v>
+        <v>16500</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>62</v>
       </c>
@@ -36951,10 +37080,13 @@
         <v>16300</v>
       </c>
       <c r="JH51" s="11">
-        <v>16600</v>
+        <v>16200</v>
+      </c>
+      <c r="JI51" s="11">
+        <v>16100</v>
       </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -37757,8 +37889,11 @@
       <c r="JH52" s="11">
         <v>7000</v>
       </c>
+      <c r="JI52" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -38559,10 +38694,13 @@
         <v>37500</v>
       </c>
       <c r="JH53" s="11">
-        <v>40100</v>
+        <v>40200</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>40700</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -39365,8 +39503,11 @@
       <c r="JH54" s="11">
         <v>3100</v>
       </c>
+      <c r="JI54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -40169,8 +40310,11 @@
       <c r="JH55" s="11">
         <v>1700</v>
       </c>
+      <c r="JI55" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -40973,8 +41117,11 @@
       <c r="JH56" s="11">
         <v>1400</v>
       </c>
+      <c r="JI56" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>70</v>
       </c>
@@ -41775,10 +41922,13 @@
         <v>34300</v>
       </c>
       <c r="JH57" s="11">
-        <v>37000</v>
+        <v>37100</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>37500</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -42581,8 +42731,11 @@
       <c r="JH58" s="11">
         <v>5900</v>
       </c>
+      <c r="JI58" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -43383,10 +43536,13 @@
         <v>28400</v>
       </c>
       <c r="JH59" s="11">
-        <v>31100</v>
+        <v>31200</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>31700</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -44187,10 +44343,13 @@
         <v>15500</v>
       </c>
       <c r="JH60" s="11">
-        <v>18300</v>
+        <v>18400</v>
+      </c>
+      <c r="JI60" s="11">
+        <v>18800</v>
       </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>74</v>
       </c>
@@ -44993,8 +45152,11 @@
       <c r="JH61" s="11">
         <v>12800</v>
       </c>
+      <c r="JI61" s="11">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -45797,8 +45959,11 @@
       <c r="JH62" s="11">
         <v>7800</v>
       </c>
+      <c r="JI62" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>76</v>
       </c>
@@ -46599,10 +46764,13 @@
         <v>3600</v>
       </c>
       <c r="JH63" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JI63" s="11">
         <v>3600</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>77</v>
       </c>
@@ -47403,7 +47571,10 @@
         <v>1500</v>
       </c>
       <c r="JH64" s="11">
-        <v>1400</v>
+        <v>1500</v>
+      </c>
+      <c r="JI64" s="11">
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">

--- a/lowe/edd/data/STOC$HWS.xlsx
+++ b/lowe/edd/data/STOC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1508,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI73"/>
+  <dimension ref="A1:JJ73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,12 +1525,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1558,12 +1558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2381,11 +2381,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3189,10 +3192,13 @@
         <v>334200</v>
       </c>
       <c r="JI9" s="11">
+        <v>333600</v>
+      </c>
+      <c r="JJ9" s="11">
         <v>333100</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3996,10 +4002,13 @@
         <v>305800</v>
       </c>
       <c r="JI10" s="11">
-        <v>308200</v>
+        <v>308700</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>309000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4805,8 +4814,11 @@
       <c r="JI11" s="11">
         <v>24900</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>24100</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5612,8 +5624,11 @@
       <c r="JI12" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6417,10 +6432,13 @@
         <v>265800</v>
       </c>
       <c r="JI13" s="11">
-        <v>266000</v>
+        <v>266700</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>267800</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7224,10 +7242,13 @@
         <v>15000</v>
       </c>
       <c r="JI14" s="11">
+        <v>15500</v>
+      </c>
+      <c r="JJ14" s="11">
         <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8031,10 +8052,13 @@
         <v>250800</v>
       </c>
       <c r="JI15" s="11">
-        <v>251000</v>
+        <v>251200</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>252800</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8838,10 +8862,13 @@
         <v>210600</v>
       </c>
       <c r="JI16" s="11">
-        <v>210300</v>
+        <v>210200</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>211300</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9645,10 +9672,13 @@
         <v>36700</v>
       </c>
       <c r="JI17" s="11">
-        <v>36500</v>
+        <v>36700</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>35600</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10454,8 +10484,11 @@
       <c r="JI18" s="11">
         <v>14200</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11261,8 +11294,11 @@
       <c r="JI19" s="11">
         <v>100</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12068,8 +12104,11 @@
       <c r="JI20" s="11">
         <v>14100</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>14400</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12873,10 +12912,13 @@
         <v>9700</v>
       </c>
       <c r="JI21" s="11">
-        <v>9700</v>
+        <v>9600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>9800</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13680,10 +13722,13 @@
         <v>22500</v>
       </c>
       <c r="JI22" s="11">
-        <v>22300</v>
+        <v>22500</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14489,8 +14534,11 @@
       <c r="JI23" s="11">
         <v>9500</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>9400</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15294,10 +15342,13 @@
         <v>13100</v>
       </c>
       <c r="JI24" s="11">
-        <v>12800</v>
+        <v>13000</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16101,10 +16152,13 @@
         <v>7400</v>
       </c>
       <c r="JI25" s="11">
-        <v>7300</v>
+        <v>7400</v>
+      </c>
+      <c r="JJ25" s="11">
+        <v>6400</v>
       </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16910,8 +16964,11 @@
       <c r="JI26" s="11">
         <v>214500</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>217200</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17715,10 +17772,13 @@
         <v>173900</v>
       </c>
       <c r="JI27" s="11">
-        <v>173800</v>
+        <v>173500</v>
+      </c>
+      <c r="JJ27" s="11">
+        <v>175700</v>
       </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18522,10 +18582,13 @@
         <v>77300</v>
       </c>
       <c r="JI28" s="11">
-        <v>77700</v>
+        <v>77000</v>
+      </c>
+      <c r="JJ28" s="11">
+        <v>77100</v>
       </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19331,8 +19394,11 @@
       <c r="JI29" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20136,10 +20202,13 @@
         <v>26200</v>
       </c>
       <c r="JI30" s="11">
-        <v>26100</v>
+        <v>26200</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>26600</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -20945,8 +21014,11 @@
       <c r="JI31" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21752,8 +21824,11 @@
       <c r="JI32" s="11">
         <v>6100</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22559,8 +22634,11 @@
       <c r="JI33" s="11">
         <v>1000</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23364,10 +23442,13 @@
         <v>40700</v>
       </c>
       <c r="JI34" s="11">
-        <v>41200</v>
+        <v>40400</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>40100</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24171,10 +24252,13 @@
         <v>39500</v>
       </c>
       <c r="JI35" s="11">
-        <v>40000</v>
+        <v>39200</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>38900</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -24980,8 +25064,11 @@
       <c r="JI36" s="11">
         <v>7500</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25785,10 +25872,13 @@
         <v>26400</v>
       </c>
       <c r="JI37" s="11">
-        <v>26600</v>
+        <v>26500</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>26900</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26592,10 +26682,13 @@
         <v>1100</v>
       </c>
       <c r="JI38" s="11">
-        <v>1100</v>
+        <v>1200</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>1200</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27401,8 +27494,11 @@
       <c r="JI39" s="11">
         <v>7600</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>7900</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28208,8 +28304,11 @@
       <c r="JI40" s="11">
         <v>4600</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29015,8 +29114,11 @@
       <c r="JI41" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29820,10 +29922,13 @@
         <v>22400</v>
       </c>
       <c r="JI42" s="11">
-        <v>22000</v>
+        <v>22100</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>22600</v>
       </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>50</v>
       </c>
@@ -30629,8 +30734,11 @@
       <c r="JI43" s="11">
         <v>15400</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>15800</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>51</v>
       </c>
@@ -31436,8 +31544,11 @@
       <c r="JI44" s="11">
         <v>39100</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>40400</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32243,8 +32354,11 @@
       <c r="JI45" s="11">
         <v>3800</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -33050,8 +33164,11 @@
       <c r="JI46" s="11">
         <v>35300</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>36300</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -33855,10 +33972,13 @@
         <v>19400</v>
       </c>
       <c r="JI47" s="11">
-        <v>19400</v>
+        <v>19600</v>
+      </c>
+      <c r="JJ47" s="11">
+        <v>19600</v>
       </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34664,8 +34784,11 @@
       <c r="JI48" s="11">
         <v>1900</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35469,10 +35592,13 @@
         <v>17600</v>
       </c>
       <c r="JI49" s="11">
-        <v>17500</v>
+        <v>17700</v>
+      </c>
+      <c r="JJ49" s="11">
+        <v>17700</v>
       </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>61</v>
       </c>
@@ -36276,10 +36402,13 @@
         <v>16500</v>
       </c>
       <c r="JI50" s="11">
-        <v>16300</v>
+        <v>16600</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>16500</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>62</v>
       </c>
@@ -37083,10 +37212,13 @@
         <v>16200</v>
       </c>
       <c r="JI51" s="11">
-        <v>16100</v>
+        <v>16000</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>15900</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -37892,8 +38024,11 @@
       <c r="JI52" s="11">
         <v>6900</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -38697,10 +38832,13 @@
         <v>40200</v>
       </c>
       <c r="JI53" s="11">
-        <v>40700</v>
+        <v>41000</v>
+      </c>
+      <c r="JJ53" s="11">
+        <v>41500</v>
       </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -39506,8 +39644,11 @@
       <c r="JI54" s="11">
         <v>3200</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -40313,8 +40454,11 @@
       <c r="JI55" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -41120,8 +41264,11 @@
       <c r="JI56" s="11">
         <v>1400</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>70</v>
       </c>
@@ -41925,10 +42072,13 @@
         <v>37100</v>
       </c>
       <c r="JI57" s="11">
-        <v>37500</v>
+        <v>37800</v>
+      </c>
+      <c r="JJ57" s="11">
+        <v>38300</v>
       </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -42734,8 +42884,11 @@
       <c r="JI58" s="11">
         <v>5800</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -43539,10 +43692,13 @@
         <v>31200</v>
       </c>
       <c r="JI59" s="11">
-        <v>31700</v>
+        <v>32000</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>32400</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -44346,10 +44502,13 @@
         <v>18400</v>
       </c>
       <c r="JI60" s="11">
-        <v>18800</v>
+        <v>19100</v>
+      </c>
+      <c r="JJ60" s="11">
+        <v>19400</v>
       </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>74</v>
       </c>
@@ -45155,8 +45314,11 @@
       <c r="JI61" s="11">
         <v>12900</v>
       </c>
+      <c r="JJ61" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -45962,8 +46124,11 @@
       <c r="JI62" s="11">
         <v>7800</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>76</v>
       </c>
@@ -46769,8 +46934,11 @@
       <c r="JI63" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ63" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>77</v>
       </c>
@@ -47575,6 +47743,9 @@
       </c>
       <c r="JI64" s="11">
         <v>1500</v>
+      </c>
+      <c r="JJ64" s="11">
+        <v>1600</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">

--- a/lowe/edd/data/STOC$HWS.xlsx
+++ b/lowe/edd/data/STOC$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,19 +365,19 @@
     <t>70-710000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Arts, Entertainment &amp; Recreation</t>
+    <t xml:space="preserve">        Arts, Entertainment &amp; Recreation</t>
   </si>
   <si>
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Food Services &amp; Drinking Places</t>
+    <t xml:space="preserve">         Food Services &amp; Drinking Places</t>
   </si>
   <si>
     <t>722511, 722590</t>
@@ -386,7 +386,7 @@
     <t>70-722500</t>
   </si>
   <si>
-    <t xml:space="preserve">            Restaurants</t>
+    <t xml:space="preserve">          Restaurants</t>
   </si>
   <si>
     <t>811000-813000</t>
@@ -1508,7 +1508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ73"/>
+  <dimension ref="A1:JL73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,12 +1525,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1558,12 +1558,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2384,11 +2384,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3195,10 +3201,16 @@
         <v>333600</v>
       </c>
       <c r="JJ9" s="11">
-        <v>333100</v>
+        <v>332300</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>329900</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>329600</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4005,10 +4017,16 @@
         <v>308700</v>
       </c>
       <c r="JJ10" s="11">
-        <v>309000</v>
+        <v>308100</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>308100</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>308300</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4815,10 +4833,16 @@
         <v>24900</v>
       </c>
       <c r="JJ11" s="11">
-        <v>24100</v>
+        <v>24200</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>21700</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>21300</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5625,10 +5649,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="JJ12" s="12">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="JK12" s="12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6435,10 +6465,16 @@
         <v>266700</v>
       </c>
       <c r="JJ13" s="11">
-        <v>267800</v>
+        <v>266900</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>264100</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>263700</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7247,8 +7283,14 @@
       <c r="JJ14" s="11">
         <v>15000</v>
       </c>
+      <c r="JK14" s="11">
+        <v>10600</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8055,10 +8097,16 @@
         <v>251200</v>
       </c>
       <c r="JJ15" s="11">
-        <v>252800</v>
+        <v>251900</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>253500</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>252900</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8865,10 +8913,16 @@
         <v>210200</v>
       </c>
       <c r="JJ16" s="11">
-        <v>211300</v>
+        <v>211000</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>212500</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>211800</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9677,8 +9731,14 @@
       <c r="JJ17" s="11">
         <v>35600</v>
       </c>
+      <c r="JK17" s="11">
+        <v>35100</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>34100</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10487,8 +10547,14 @@
       <c r="JJ18" s="11">
         <v>14500</v>
       </c>
+      <c r="JK18" s="11">
+        <v>14300</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11297,8 +11363,14 @@
       <c r="JJ19" s="11">
         <v>100</v>
       </c>
+      <c r="JK19" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12107,8 +12179,14 @@
       <c r="JJ20" s="11">
         <v>14400</v>
       </c>
+      <c r="JK20" s="11">
+        <v>14200</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12915,10 +12993,16 @@
         <v>9600</v>
       </c>
       <c r="JJ21" s="11">
+        <v>9900</v>
+      </c>
+      <c r="JK21" s="11">
         <v>9800</v>
       </c>
+      <c r="JL21" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -13727,8 +13811,14 @@
       <c r="JJ22" s="11">
         <v>21100</v>
       </c>
+      <c r="JK22" s="11">
+        <v>20800</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>20500</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -14537,8 +14627,14 @@
       <c r="JJ23" s="11">
         <v>9400</v>
       </c>
+      <c r="JK23" s="11">
+        <v>9400</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -15347,8 +15443,14 @@
       <c r="JJ24" s="11">
         <v>11700</v>
       </c>
+      <c r="JK24" s="11">
+        <v>11400</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -16155,10 +16257,16 @@
         <v>7400</v>
       </c>
       <c r="JJ25" s="11">
-        <v>6400</v>
+        <v>6800</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>6600</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>6500</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -16965,10 +17073,16 @@
         <v>214500</v>
       </c>
       <c r="JJ26" s="11">
-        <v>217200</v>
+        <v>216300</v>
+      </c>
+      <c r="JK26" s="11">
+        <v>218400</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>218800</v>
       </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -17775,10 +17889,16 @@
         <v>173500</v>
       </c>
       <c r="JJ27" s="11">
-        <v>175700</v>
+        <v>175400</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>177400</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>177700</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -18585,10 +18705,16 @@
         <v>77000</v>
       </c>
       <c r="JJ28" s="11">
-        <v>77100</v>
+        <v>76900</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>77800</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>77800</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -19397,8 +19523,14 @@
       <c r="JJ29" s="11">
         <v>10400</v>
       </c>
+      <c r="JK29" s="11">
+        <v>10400</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -20205,10 +20337,16 @@
         <v>26200</v>
       </c>
       <c r="JJ30" s="11">
-        <v>26600</v>
+        <v>26500</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>27100</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>27300</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -21017,8 +21155,14 @@
       <c r="JJ31" s="11">
         <v>1900</v>
       </c>
+      <c r="JK31" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -21827,8 +21971,14 @@
       <c r="JJ32" s="11">
         <v>6400</v>
       </c>
+      <c r="JK32" s="11">
+        <v>6800</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -22637,8 +22787,14 @@
       <c r="JJ33" s="11">
         <v>1100</v>
       </c>
+      <c r="JK33" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -23445,10 +23601,16 @@
         <v>40400</v>
       </c>
       <c r="JJ34" s="11">
+        <v>40000</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>40300</v>
+      </c>
+      <c r="JL34" s="11">
         <v>40100</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24255,10 +24417,16 @@
         <v>39200</v>
       </c>
       <c r="JJ35" s="11">
-        <v>38900</v>
+        <v>38800</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>37600</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>37500</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>39</v>
       </c>
@@ -25065,10 +25233,16 @@
         <v>7500</v>
       </c>
       <c r="JJ36" s="11">
+        <v>7300</v>
+      </c>
+      <c r="JK36" s="11">
         <v>6900</v>
       </c>
+      <c r="JL36" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>40</v>
       </c>
@@ -25875,10 +26049,16 @@
         <v>26500</v>
       </c>
       <c r="JJ37" s="11">
-        <v>26900</v>
+        <v>26400</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>26100</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>26100</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>41</v>
       </c>
@@ -26687,8 +26867,14 @@
       <c r="JJ38" s="11">
         <v>1200</v>
       </c>
+      <c r="JK38" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>42</v>
       </c>
@@ -27495,10 +27681,16 @@
         <v>7600</v>
       </c>
       <c r="JJ39" s="11">
-        <v>7900</v>
+        <v>7800</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>7600</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>7600</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>43</v>
       </c>
@@ -28307,8 +28499,14 @@
       <c r="JJ40" s="11">
         <v>4600</v>
       </c>
+      <c r="JK40" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -29117,8 +29315,14 @@
       <c r="JJ41" s="11">
         <v>1800</v>
       </c>
+      <c r="JK41" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>48</v>
       </c>
@@ -29927,8 +30131,14 @@
       <c r="JJ42" s="11">
         <v>22600</v>
       </c>
+      <c r="JK42" s="11">
+        <v>23400</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>23200</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>50</v>
       </c>
@@ -30735,10 +30945,16 @@
         <v>15400</v>
       </c>
       <c r="JJ43" s="11">
-        <v>15800</v>
+        <v>16000</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>16500</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>16400</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>51</v>
       </c>
@@ -31545,10 +31761,16 @@
         <v>39100</v>
       </c>
       <c r="JJ44" s="11">
-        <v>40400</v>
+        <v>40200</v>
+      </c>
+      <c r="JK44" s="11">
+        <v>40600</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>41100</v>
       </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>52</v>
       </c>
@@ -32357,8 +32579,14 @@
       <c r="JJ45" s="11">
         <v>4100</v>
       </c>
+      <c r="JK45" s="11">
+        <v>4200</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>53</v>
       </c>
@@ -33165,10 +33393,16 @@
         <v>35300</v>
       </c>
       <c r="JJ46" s="11">
-        <v>36300</v>
+        <v>36100</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>36400</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>36900</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>57</v>
       </c>
@@ -33975,10 +34209,16 @@
         <v>19600</v>
       </c>
       <c r="JJ47" s="11">
-        <v>19600</v>
+        <v>19700</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>19800</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>19900</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>58</v>
       </c>
@@ -34787,8 +35027,14 @@
       <c r="JJ48" s="11">
         <v>1900</v>
       </c>
+      <c r="JK48" s="11">
+        <v>1900</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>59</v>
       </c>
@@ -35595,10 +35841,16 @@
         <v>17700</v>
       </c>
       <c r="JJ49" s="11">
-        <v>17700</v>
+        <v>17800</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>17900</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>18000</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>61</v>
       </c>
@@ -36405,10 +36657,16 @@
         <v>16600</v>
       </c>
       <c r="JJ50" s="11">
-        <v>16500</v>
+        <v>16600</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>16700</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>16800</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>62</v>
       </c>
@@ -37215,10 +37473,16 @@
         <v>16000</v>
       </c>
       <c r="JJ51" s="11">
-        <v>15900</v>
+        <v>16000</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>16200</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>16400</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>65</v>
       </c>
@@ -38025,10 +38289,16 @@
         <v>6900</v>
       </c>
       <c r="JJ52" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>7000</v>
+      </c>
+      <c r="JL52" s="11">
         <v>6900</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>66</v>
       </c>
@@ -38835,10 +39105,16 @@
         <v>41000</v>
       </c>
       <c r="JJ53" s="11">
-        <v>41500</v>
+        <v>40900</v>
+      </c>
+      <c r="JK53" s="11">
+        <v>41000</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>41100</v>
       </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -39647,8 +39923,14 @@
       <c r="JJ54" s="11">
         <v>3200</v>
       </c>
+      <c r="JK54" s="11">
+        <v>3100</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>68</v>
       </c>
@@ -40457,8 +40739,14 @@
       <c r="JJ55" s="11">
         <v>1800</v>
       </c>
+      <c r="JK55" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>69</v>
       </c>
@@ -41267,8 +41555,14 @@
       <c r="JJ56" s="11">
         <v>1400</v>
       </c>
+      <c r="JK56" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>70</v>
       </c>
@@ -42075,10 +42369,16 @@
         <v>37800</v>
       </c>
       <c r="JJ57" s="11">
-        <v>38300</v>
+        <v>37700</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>37900</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>37900</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -42885,10 +43185,16 @@
         <v>5800</v>
       </c>
       <c r="JJ58" s="11">
-        <v>5900</v>
+        <v>5800</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>5700</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>5700</v>
       </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -43695,10 +44001,16 @@
         <v>32000</v>
       </c>
       <c r="JJ59" s="11">
-        <v>32400</v>
+        <v>31900</v>
+      </c>
+      <c r="JK59" s="11">
+        <v>32200</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>32200</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -44505,10 +44817,16 @@
         <v>19100</v>
       </c>
       <c r="JJ60" s="11">
+        <v>19100</v>
+      </c>
+      <c r="JK60" s="11">
         <v>19400</v>
       </c>
+      <c r="JL60" s="11">
+        <v>19300</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>74</v>
       </c>
@@ -45315,10 +45633,16 @@
         <v>12900</v>
       </c>
       <c r="JJ61" s="11">
-        <v>13000</v>
+        <v>12800</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>12800</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>12900</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>75</v>
       </c>
@@ -46127,8 +46451,14 @@
       <c r="JJ62" s="11">
         <v>7800</v>
       </c>
+      <c r="JK62" s="11">
+        <v>7800</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>76</v>
       </c>
@@ -46937,8 +47267,14 @@
       <c r="JJ63" s="11">
         <v>3600</v>
       </c>
+      <c r="JK63" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>77</v>
       </c>
@@ -47745,7 +48081,13 @@
         <v>1500</v>
       </c>
       <c r="JJ64" s="11">
-        <v>1600</v>
+        <v>1400</v>
+      </c>
+      <c r="JK64" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>1500</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
